--- a/Sprint Project.xlsx
+++ b/Sprint Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRAKTIKUM\praktikumML_285_283\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8D7484-46A8-4A5F-8CAE-F8F34F6F950F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59073E8-D0A4-4252-B8E7-76AD410C0754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{613DB188-2151-4597-87C0-818774658DC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>TASK</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 14 Desember 2021</t>
+  </si>
+  <si>
+    <t>18 Oktober 2021</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,11 +594,14 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">

--- a/Sprint Project.xlsx
+++ b/Sprint Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRAKTIKUM\praktikumML_285_283\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59073E8-D0A4-4252-B8E7-76AD410C0754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCD3601-8318-4441-80B6-8983F825FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{613DB188-2151-4597-87C0-818774658DC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>TASK</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>18 Oktober 2021</t>
+  </si>
+  <si>
+    <t>25 Oktober 2021</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,11 +617,14 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
